--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/recharge/Recharge.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/recharge/Recharge.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,11 +123,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcaseName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcaseDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正例-充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反例-充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行卡充值-充值成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额小于下限-充值成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额大于上限-充值成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付密码错误-充值成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,159 +512,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1">
+      <c r="G2" s="1">
         <v>1100</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1">
+      <c r="G3" s="1">
         <v>2000000</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1">
+      <c r="G4" s="1">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1">
+      <c r="G5" s="1">
         <v>1000</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>21</v>
       </c>
     </row>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/recharge/Recharge.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/recharge/Recharge.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/web_ui_auto_testing/src/main/resources/resources/TestData/com/nonobank/apps/testcase/recharge/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11925" windowHeight="5820"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -162,8 +167,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,16 +519,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.1640625" customWidth="1"/>
+    <col min="4" max="4" width="41.83203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="36.33203125" customWidth="1"/>
+    <col min="6" max="6" width="36" customWidth="1"/>
+    <col min="8" max="8" width="36.6640625" customWidth="1"/>
+    <col min="9" max="9" width="24.83203125" customWidth="1"/>
+    <col min="11" max="11" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -558,7 +570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -593,7 +605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>26</v>
       </c>
@@ -628,7 +640,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -663,7 +675,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -713,9 +725,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -723,7 +735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/recharge/Recharge.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/recharge/Recharge.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/web_ui_auto_testing/src/main/resources/resources/TestData/com/nonobank/apps/testcase/recharge/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14445"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
     <sheet name="comment" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="81">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,47 +123,231 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>testcaseName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testcaseDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正例-充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反例-充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行卡充值-充值成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额小于下限-充值成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额大于上限-充值成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付密码错误-充值成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bankName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行卡充值-充值成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏银行卡充值-充值成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行卡充值-充值成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行卡充值-充值成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行卡充值-充值成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行卡充值-充值成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行卡充值-充值成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大银行卡充值-充值成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行卡充值-充值成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行卡充值-充值成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行卡充值-充值成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行卡充值-充值成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行卡充值-充值成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政储蓄卡充值-充值成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(4)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(10)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(11)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(15)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(33)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(2)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(3)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(5)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(6)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(9)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(17)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(12)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(1)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(8)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${UserInfoUtils.getBankUser(7)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政储蓄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testcaseName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testcaseDescription</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正例-充值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反例-充值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建设银行卡充值-充值成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额小于下限-充值成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额大于上限-充值成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付密码错误-充值成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -517,33 +696,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" customWidth="1"/>
-    <col min="4" max="4" width="41.83203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="36.33203125" customWidth="1"/>
-    <col min="6" max="6" width="36" customWidth="1"/>
-    <col min="8" max="8" width="36.6640625" customWidth="1"/>
-    <col min="9" max="9" width="24.83203125" customWidth="1"/>
-    <col min="11" max="11" width="21.1640625" customWidth="1"/>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="39.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -555,158 +738,705 @@
         <v>13</v>
       </c>
       <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1100</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1100</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1100</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1100</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1100</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1100</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1100</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1100</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1100</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1100</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1100</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1100</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1100</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1100</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1100</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1100</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2000000</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="1">
+        <v>9</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1">
-        <v>9</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="E19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="1">
         <v>1000</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="K19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" t="s">
         <v>21</v>
       </c>
     </row>
@@ -725,9 +1455,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -735,7 +1465,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/recharge/Recharge.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/recharge/Recharge.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="82">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -340,6 +340,10 @@
   </si>
   <si>
     <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -699,7 +703,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -758,7 +762,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>28</v>
@@ -796,7 +800,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>28</v>
@@ -834,7 +838,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>28</v>
@@ -872,7 +876,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>28</v>
@@ -910,7 +914,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>28</v>
@@ -986,7 +990,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>28</v>
@@ -1024,7 +1028,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>28</v>
@@ -1062,7 +1066,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>28</v>
@@ -1100,7 +1104,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>28</v>
@@ -1138,7 +1142,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>28</v>
@@ -1176,7 +1180,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>28</v>
@@ -1214,7 +1218,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>28</v>
@@ -1252,7 +1256,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>28</v>
@@ -1290,7 +1294,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>28</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/recharge/Recharge.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/recharge/Recharge.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="81">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,10 +152,6 @@
   </si>
   <si>
     <t>支付密码错误-充值成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -703,7 +699,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -742,7 +738,7 @@
         <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -762,7 +758,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>28</v>
@@ -771,7 +767,7 @@
         <v>30</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
@@ -780,7 +776,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2" s="1">
         <v>1100</v>
@@ -800,16 +796,16 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>15</v>
@@ -818,7 +814,7 @@
         <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H3" s="1">
         <v>1100</v>
@@ -838,16 +834,16 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>15</v>
@@ -856,7 +852,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H4" s="1">
         <v>1100</v>
@@ -876,16 +872,16 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>15</v>
@@ -894,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" s="1">
         <v>1100</v>
@@ -914,16 +910,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>15</v>
@@ -932,7 +928,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H6" s="1">
         <v>1100</v>
@@ -952,16 +948,16 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>15</v>
@@ -970,7 +966,7 @@
         <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H7" s="1">
         <v>1100</v>
@@ -990,16 +986,16 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>15</v>
@@ -1008,7 +1004,7 @@
         <v>14</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H8" s="1">
         <v>1100</v>
@@ -1028,16 +1024,16 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>15</v>
@@ -1046,7 +1042,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H9" s="1">
         <v>1100</v>
@@ -1066,16 +1062,16 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>15</v>
@@ -1084,7 +1080,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H10" s="1">
         <v>1100</v>
@@ -1104,16 +1100,16 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>15</v>
@@ -1122,7 +1118,7 @@
         <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H11" s="1">
         <v>1100</v>
@@ -1142,16 +1138,16 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>15</v>
@@ -1160,7 +1156,7 @@
         <v>14</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H12" s="1">
         <v>1100</v>
@@ -1180,16 +1176,16 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>15</v>
@@ -1198,7 +1194,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H13" s="1">
         <v>1100</v>
@@ -1218,16 +1214,16 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>15</v>
@@ -1236,7 +1232,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H14" s="1">
         <v>1100</v>
@@ -1256,16 +1252,16 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>15</v>
@@ -1274,7 +1270,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H15" s="1">
         <v>1100</v>
@@ -1294,16 +1290,16 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>15</v>
@@ -1312,7 +1308,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H16" s="1">
         <v>1100</v>
@@ -1332,7 +1328,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>29</v>
@@ -1350,7 +1346,7 @@
         <v>14</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H17" s="1">
         <v>2000000</v>
@@ -1370,7 +1366,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>29</v>
@@ -1388,7 +1384,7 @@
         <v>14</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H18" s="1">
         <v>9</v>
@@ -1408,7 +1404,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>29</v>
@@ -1426,7 +1422,7 @@
         <v>14</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19" s="1">
         <v>1000</v>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/recharge/Recharge.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/recharge/Recharge.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="80">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,10 +64,6 @@
   </si>
   <si>
     <t>充值成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${UserInfoUtils.getBindedCardUser(mobile_num)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -699,7 +695,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -723,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -735,10 +731,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -747,7 +743,7 @@
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K1" t="s">
         <v>2</v>
@@ -758,34 +754,34 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" s="1">
         <v>1100</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>9</v>
@@ -796,34 +792,34 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H3" s="1">
         <v>1100</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>9</v>
@@ -834,34 +830,34 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H4" s="1">
         <v>1100</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>9</v>
@@ -872,34 +868,34 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H5" s="1">
         <v>1100</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>9</v>
@@ -910,34 +906,34 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H6" s="1">
         <v>1100</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>9</v>
@@ -948,34 +944,34 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H7" s="1">
         <v>1100</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>9</v>
@@ -986,34 +982,34 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H8" s="1">
         <v>1100</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>9</v>
@@ -1024,34 +1020,34 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H9" s="1">
         <v>1100</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>9</v>
@@ -1062,34 +1058,34 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H10" s="1">
         <v>1100</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>9</v>
@@ -1100,34 +1096,34 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H11" s="1">
         <v>1100</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>9</v>
@@ -1138,34 +1134,34 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H12" s="1">
         <v>1100</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>9</v>
@@ -1176,34 +1172,34 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H13" s="1">
         <v>1100</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>9</v>
@@ -1214,34 +1210,34 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H14" s="1">
         <v>1100</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>9</v>
@@ -1252,34 +1248,34 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H15" s="1">
         <v>1100</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>9</v>
@@ -1290,34 +1286,34 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H16" s="1">
         <v>1100</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>9</v>
@@ -1328,116 +1324,116 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17" s="1">
         <v>2000000</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H18" s="1">
         <v>9</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="H19" s="1">
         <v>1000</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" t="s">
         <v>20</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L19" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/recharge/Recharge.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/recharge/Recharge.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="108">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,22 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>建设银行卡充值-充值成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额小于下限-充值成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金额大于上限-充值成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付密码错误-充值成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>建设银行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,62 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中信银行卡充值-充值成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>华夏银行卡充值-充值成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广发银行卡充值-充值成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平安银行卡充值-充值成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>农业银行卡充值-充值成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国银行卡充值-充值成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招商银行卡充值-充值成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光大银行卡充值-充值成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交通银行卡充值-充值成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>民生银行卡充值-充值成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浦发银行卡充值-充值成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工商银行卡充值-充值成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兴业银行卡充值-充值成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮政储蓄卡充值-充值成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>${UserInfoUtils.getBankUser(4)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -336,6 +264,190 @@
   </si>
   <si>
     <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行卡充值成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏银行卡充值成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行卡充值成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行卡充值成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大银行卡充值成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行卡充值成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行卡充值成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行卡充值成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行卡金额小于下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建设银行卡金额大于上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付密码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行卡充值成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行卡金额小于下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行卡金额大于上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏银行卡金额小于下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏银行卡金额大于上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行卡充值成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行卡金额小于下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发银行卡金额大于上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行卡充值成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行卡金额小于下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安银行卡金额大于上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行卡充值成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行卡金额小于下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农业银行卡金额大于上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行卡金额小于下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行卡金额大于上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行卡金额小于下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行卡金额大于上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大银行卡金额小于下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大银行卡金额大于上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行卡金额小于下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行卡金额大于上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行卡充值成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行卡金额小于下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行卡金额大于上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行卡金额小于下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发银行卡金额大于上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行卡金额小于下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工商银行卡金额大于上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行卡充值成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行卡金额小于下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业银行卡金额大于上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政储蓄卡充值成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政储蓄卡金额小于下限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮政储蓄卡金额大于上限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -692,18 +804,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="39.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="36.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
@@ -734,7 +846,7 @@
         <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -754,25 +866,25 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="H2" s="1">
         <v>1100</v>
@@ -792,16 +904,16 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>14</v>
@@ -810,7 +922,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="H3" s="1">
         <v>1100</v>
@@ -830,16 +942,16 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
@@ -848,7 +960,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="H4" s="1">
         <v>1100</v>
@@ -868,16 +980,16 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
@@ -886,7 +998,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="H5" s="1">
         <v>1100</v>
@@ -906,16 +1018,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>14</v>
@@ -924,7 +1036,7 @@
         <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="H6" s="1">
         <v>1100</v>
@@ -944,16 +1056,16 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>14</v>
@@ -962,7 +1074,7 @@
         <v>13</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="H7" s="1">
         <v>1100</v>
@@ -982,16 +1094,16 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>14</v>
@@ -1000,7 +1112,7 @@
         <v>13</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="H8" s="1">
         <v>1100</v>
@@ -1020,16 +1132,16 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
@@ -1038,7 +1150,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="H9" s="1">
         <v>1100</v>
@@ -1058,16 +1170,16 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>14</v>
@@ -1076,7 +1188,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="H10" s="1">
         <v>1100</v>
@@ -1096,16 +1208,16 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>14</v>
@@ -1114,7 +1226,7 @@
         <v>13</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="H11" s="1">
         <v>1100</v>
@@ -1134,16 +1246,16 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>14</v>
@@ -1152,7 +1264,7 @@
         <v>13</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="H12" s="1">
         <v>1100</v>
@@ -1172,16 +1284,16 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>14</v>
@@ -1190,7 +1302,7 @@
         <v>13</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="H13" s="1">
         <v>1100</v>
@@ -1210,16 +1322,16 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>14</v>
@@ -1228,7 +1340,7 @@
         <v>13</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="H14" s="1">
         <v>1100</v>
@@ -1248,16 +1360,16 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>14</v>
@@ -1266,7 +1378,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="H15" s="1">
         <v>1100</v>
@@ -1286,16 +1398,16 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>14</v>
@@ -1304,7 +1416,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="H16" s="1">
         <v>1100</v>
@@ -1324,16 +1436,16 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>14</v>
@@ -1342,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H17" s="1">
         <v>2000000</v>
@@ -1362,17 +1474,17 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="E18" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,7 +1492,7 @@
         <v>13</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H18" s="1">
         <v>9</v>
@@ -1400,39 +1512,1103 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="1">
+        <v>9</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="1">
+        <v>9</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="1">
+        <v>9</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H19" s="1">
+      <c r="H25" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26" s="1">
+        <v>9</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" s="1">
+        <v>9</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" s="1">
+        <v>9</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="1">
+        <v>9</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" s="1">
+        <v>9</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H35" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H36" s="1">
+        <v>9</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H37" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H38" s="1">
+        <v>9</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H39" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L39" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="1">
+        <v>9</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H41" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L41" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H42" s="1">
+        <v>9</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H43" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H44" s="1">
+        <v>9</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H45" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H46" s="1">
+        <v>9</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" s="1">
         <v>1000</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J47" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L19" t="s">
+      <c r="K47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L47" t="s">
         <v>20</v>
       </c>
     </row>

--- a/src/main/resources/resources/TestData/com/nonobank/apps/testcase/recharge/Recharge.xlsx
+++ b/src/main/resources/resources/TestData/com/nonobank/apps/testcase/recharge/Recharge.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="107">
   <si>
     <t>flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,10 +260,6 @@
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -806,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:A44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -872,7 +868,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>31</v>
@@ -904,13 +900,13 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>32</v>
@@ -942,13 +938,13 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>33</v>
@@ -986,7 +982,7 @@
         <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>34</v>
@@ -1018,13 +1014,13 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>35</v>
@@ -1062,7 +1058,7 @@
         <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>36</v>
@@ -1094,13 +1090,13 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>37</v>
@@ -1132,13 +1128,13 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>38</v>
@@ -1170,13 +1166,13 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>39</v>
@@ -1208,13 +1204,13 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>40</v>
@@ -1246,13 +1242,13 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>41</v>
@@ -1284,13 +1280,13 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>42</v>
@@ -1328,7 +1324,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>43</v>
@@ -1366,7 +1362,7 @@
         <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>44</v>
@@ -1398,13 +1394,13 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>45</v>
@@ -1442,7 +1438,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>31</v>
@@ -1480,7 +1476,7 @@
         <v>28</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>31</v>
@@ -1512,13 +1508,13 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>32</v>
@@ -1550,13 +1546,13 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>32</v>
@@ -1588,13 +1584,13 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>33</v>
@@ -1626,13 +1622,13 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>33</v>
@@ -1670,7 +1666,7 @@
         <v>28</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>34</v>
@@ -1708,7 +1704,7 @@
         <v>28</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>34</v>
@@ -1740,13 +1736,13 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>35</v>
@@ -1778,13 +1774,13 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>35</v>
@@ -1822,7 +1818,7 @@
         <v>28</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>36</v>
@@ -1860,7 +1856,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>36</v>
@@ -1892,13 +1888,13 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>37</v>
@@ -1930,13 +1926,13 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>37</v>
@@ -1968,13 +1964,13 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>38</v>
@@ -2006,13 +2002,13 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>38</v>
@@ -2044,13 +2040,13 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>39</v>
@@ -2082,13 +2078,13 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>39</v>
@@ -2120,13 +2116,13 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>40</v>
@@ -2158,13 +2154,13 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>40</v>
@@ -2196,13 +2192,13 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>41</v>
@@ -2234,13 +2230,13 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>41</v>
@@ -2272,13 +2268,13 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>42</v>
@@ -2310,13 +2306,13 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>42</v>
@@ -2354,7 +2350,7 @@
         <v>28</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>43</v>
@@ -2392,7 +2388,7 @@
         <v>28</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>43</v>
@@ -2430,7 +2426,7 @@
         <v>28</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>44</v>
@@ -2468,7 +2464,7 @@
         <v>28</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>44</v>
@@ -2500,13 +2496,13 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>45</v>
@@ -2538,13 +2534,13 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>45</v>
@@ -2582,7 +2578,7 @@
         <v>28</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>31</v>
